--- a/data/data_final.xlsx
+++ b/data/data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericasa1/Desktop/datascience_projects/r_projects/WetlandMetagression/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B07422D-6174-5D41-969E-217EC2F4C832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA5C523-6FB4-CA4D-B8BF-98465F1A8D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="460" windowWidth="13860" windowHeight="14780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="460" windowWidth="15660" windowHeight="14780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables1 " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="168">
   <si>
     <t>Awondo et al.</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Forest 1 = forested wetland</t>
   </si>
   <si>
-    <t>q0 Baseline acres (1000s)</t>
-  </si>
-  <si>
     <t>q1 Policy acres (1000s)</t>
   </si>
   <si>
@@ -289,12 +286,6 @@
     <t>Median 1=wtp estimate=median</t>
   </si>
   <si>
-    <t>q0,alt Alternative baseline acres (1000s)</t>
-  </si>
-  <si>
-    <t>q1,alt Alternative policy acres (1000s)</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -334,7 +325,217 @@
     <t>cult 1 = cultural function affected</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Mean(SD)</t>
+  </si>
+  <si>
+    <t>4.46(1.65)</t>
+  </si>
+  <si>
+    <t>1.83(0.83)</t>
+  </si>
+  <si>
+    <t>11.27(0.22)</t>
+  </si>
+  <si>
+    <t>0.12(0.33)</t>
+  </si>
+  <si>
+    <t>0.26(0.44)</t>
+  </si>
+  <si>
+    <t>0.21(0.41)</t>
+  </si>
+  <si>
+    <t>0.38(0.49)</t>
+  </si>
+  <si>
+    <t>0.45(0.50)</t>
+  </si>
+  <si>
+    <t>0.69(0.47)</t>
+  </si>
+  <si>
+    <t>0.50(0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q0 Baseline acres </t>
+  </si>
+  <si>
+    <t>241,236(503,060)</t>
+  </si>
+  <si>
+    <t>316,107(648,436)</t>
+  </si>
+  <si>
+    <t>0.34(0.48)</t>
+  </si>
+  <si>
+    <t>0.33(0.47)</t>
+  </si>
+  <si>
+    <t>0.19(0.40)</t>
+  </si>
+  <si>
+    <t>0.88(0.33)</t>
+  </si>
+  <si>
+    <t>0.24(0.44)</t>
+  </si>
+  <si>
+    <t>5.31(1.19)</t>
+  </si>
+  <si>
+    <t>2.78(0.44)</t>
+  </si>
+  <si>
+    <t>11.30(0.19)</t>
+  </si>
+  <si>
+    <t>0.18(0.39)</t>
+  </si>
+  <si>
+    <t>0.71(0.47)</t>
+  </si>
+  <si>
+    <t>0.82(0.39)</t>
+  </si>
+  <si>
+    <t>0.76(0.44)</t>
+  </si>
+  <si>
+    <t>374819(746668)</t>
+  </si>
+  <si>
+    <t>431429(859075)</t>
+  </si>
+  <si>
+    <t>0.48(0.51)</t>
+  </si>
+  <si>
+    <t>4.11(1.69)</t>
+  </si>
+  <si>
+    <t>1.44(0.61)</t>
+  </si>
+  <si>
+    <t>11.25(0.23)</t>
+  </si>
+  <si>
+    <t>0.1(0.30)</t>
+  </si>
+  <si>
+    <t>0.07(0.26)</t>
+  </si>
+  <si>
+    <t>0.29(0.46)</t>
+  </si>
+  <si>
+    <t>0.53(0.50)</t>
+  </si>
+  <si>
+    <t>0.66(0.48)</t>
+  </si>
+  <si>
+    <t>0.39(0.49)</t>
+  </si>
+  <si>
+    <t>0.37(0.49)</t>
+  </si>
+  <si>
+    <t>185848(357685)</t>
+  </si>
+  <si>
+    <t>268291(544031)</t>
+  </si>
+  <si>
+    <t>0.27(0.46)</t>
+  </si>
+  <si>
+    <t>0.10(0.30)</t>
+  </si>
+  <si>
+    <t>0.54(0.50)</t>
+  </si>
+  <si>
+    <t>0.27(0.45)</t>
+  </si>
+  <si>
+    <t>4.68(1.90)</t>
+  </si>
+  <si>
+    <t>1.30(0.08)</t>
+  </si>
+  <si>
+    <t>11.28(0.20)</t>
+  </si>
+  <si>
+    <t>0.75(0.44)</t>
+  </si>
+  <si>
+    <t>0.35(0.49)</t>
+  </si>
+  <si>
+    <t>0.80(0.41)</t>
+  </si>
+  <si>
+    <t>0.20(0.41)</t>
+  </si>
+  <si>
+    <t>339368(465570)</t>
+  </si>
+  <si>
+    <t>496242(715341)</t>
+  </si>
+  <si>
+    <t>0.15(0.37)</t>
+  </si>
+  <si>
+    <t>0.05(0.22)</t>
+  </si>
+  <si>
+    <t>0.85(0.37)</t>
+  </si>
+  <si>
+    <t>0.2(0.41)</t>
+  </si>
+  <si>
+    <t>4.34(1.51)</t>
+  </si>
+  <si>
+    <t>2.11(0.91)</t>
+  </si>
+  <si>
+    <t>11.26(0.23)</t>
+  </si>
+  <si>
+    <t>0.40(0.50)</t>
+  </si>
+  <si>
+    <t>0.32(0.47)</t>
+  </si>
+  <si>
+    <t>0.50(0.51)</t>
+  </si>
+  <si>
+    <t>0.63(0.49)</t>
+  </si>
+  <si>
+    <t>0.76(0.43)</t>
+  </si>
+  <si>
+    <t>189587(520204)</t>
+  </si>
+  <si>
+    <t>221299(598505)</t>
+  </si>
+  <si>
+    <t>0.37(0.43)</t>
+  </si>
+  <si>
+    <t>0.47(0.51)</t>
+  </si>
+  <si>
+    <t>0.24(0.43)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,6 +609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2308,211 +2510,899 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC97FBB-6A4D-EF4A-8575-F65D0DAD8B81}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>87</v>
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>96</v>
+      <c r="B3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7.56</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7.56</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.89</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10.99</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11.67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="J6" s="5">
+        <v>11.49</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="8">
+        <v>10.91</v>
+      </c>
+      <c r="M6" s="5">
+        <v>11.75</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>988422</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11272</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2131000</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>988422</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2131000</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1408</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1976843</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11407</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2382000</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5884</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1976843</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1408</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2382000</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>84</v>
+      <c r="B22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2528,20 +3418,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B5A7EC-2FA8-AF4A-946F-6C3024487FB6}">
-  <dimension ref="C26"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
+  <cols>
+    <col min="1" max="1" width="108.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>